--- a/CASUAL/LA CHO/CAUSAREN, JOHN ROBERT C.xlsx
+++ b/CASUAL/LA CHO/CAUSAREN, JOHN ROBERT C.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CHO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E23710-EB41-429C-B92C-DB6B5A00B7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00562460-4984-48BA-A0D1-6778AACE2ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>11/21-24/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -582,6 +585,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -594,26 +606,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2979,9 +2985,9 @@
   <dimension ref="A2:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A28" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomLeft" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3011,14 +3017,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3029,16 +3035,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>44743</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3051,14 +3057,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3084,18 +3090,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3142,7 +3148,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>7.9079999999999995</v>
+        <v>11.657999999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3158,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>20</v>
+        <v>22.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3558,15 +3564,17 @@
       <c r="B29" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D29" s="38">
         <v>4</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G29" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H29" s="38"/>
       <c r="I29" s="9"/>
@@ -3580,13 +3588,15 @@
         <v>45261</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D30" s="38"/>
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
-      <c r="G30" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G30" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H30" s="38"/>
       <c r="I30" s="9"/>
@@ -3615,19 +3625,27 @@
       <c r="A32" s="39">
         <v>45292</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D32" s="38"/>
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="38"/>
+      <c r="G32" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="38">
+        <v>1</v>
+      </c>
       <c r="I32" s="9"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="20"/>
+      <c r="K32" s="61">
+        <v>45317</v>
+      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="39">
@@ -4387,17 +4405,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4549,7 +4567,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="48">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>27.908000000000001</v>
+        <v>34.408000000000001</v>
       </c>
       <c r="C7" s="36">
         <v>1</v>
